--- a/etrain_parser/result.xlsx
+++ b/etrain_parser/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K136"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,12 +491,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>05:03</t>
+          <t>04:27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:09</t>
+          <t>04:33</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Нахабино - Москва Курская</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -526,7 +526,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=f870f61cee</t>
+          <t>https://www.tutu.ru/view.php?np=c84c307cd5</t>
         </is>
       </c>
     </row>
@@ -536,12 +536,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>04:45</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>04:51</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>ежедневно</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Новоиерусалимская - Москва Рижская</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -571,7 +571,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=49f863549f</t>
+          <t>https://www.tutu.ru/view.php?np=7d61710848</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>05:03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>05:27</t>
+          <t>05:09</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=94147a847a</t>
+          <t>https://www.tutu.ru/view.php?np=f870f61cee</t>
         </is>
       </c>
     </row>
@@ -626,12 +626,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>05:33</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>05:39</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -641,12 +641,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ежедневно</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Нахабино - Москва Рижская</t>
+          <t>Новоиерусалимская - Стрешнево (бывш. Ленинградская)</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -661,7 +661,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=7f07dad8a3</t>
+          <t>https://www.tutu.ru/view.php?np=7592a8f12f</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>05:39</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>05:27</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=cd80e21dfc</t>
+          <t>https://www.tutu.ru/view.php?np=94147a847a</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>05:33</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>05:57</t>
+          <t>05:39</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Румянцево - Москва Рижская</t>
+          <t>Нахабино - Москва Рижская</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -751,7 +751,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=404b20d535</t>
+          <t>https://www.tutu.ru/view.php?np=7f07dad8a3</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>05:57</t>
+          <t>05:39</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=d4fdaa9c39</t>
+          <t>https://www.tutu.ru/view.php?np=cd80e21dfc</t>
         </is>
       </c>
     </row>
@@ -806,12 +806,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>06:07</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>06:13</t>
+          <t>05:57</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Волоколамск - Москва Рижская</t>
+          <t>Румянцево - Москва Рижская</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -841,7 +841,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=7d29352171</t>
+          <t>https://www.tutu.ru/view.php?np=404b20d535</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>05:57</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>06:21</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=114aa1aa1a</t>
+          <t>https://www.tutu.ru/view.php?np=d4fdaa9c39</t>
         </is>
       </c>
     </row>
@@ -896,17 +896,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>06:21</t>
+          <t>06:07</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>06:28</t>
+          <t>06:13</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7 м</t>
+          <t>6 м</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Новоиерусалимская - Стрешнево (бывш. Ленинградская)</t>
+          <t>Волоколамск - Москва Рижская</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -931,7 +931,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=7cd6d2dcdb</t>
+          <t>https://www.tutu.ru/view.php?np=7d29352171</t>
         </is>
       </c>
     </row>
@@ -941,12 +941,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>06:33</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>06:21</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=1f58d94238</t>
+          <t>https://www.tutu.ru/view.php?np=114aa1aa1a</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>06:21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>06:28</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6 м</t>
+          <t>7 м</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Шаховская - Москва Рижская</t>
+          <t>Новоиерусалимская - Стрешнево (бывш. Ленинградская)</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=ef15503049</t>
+          <t>https://www.tutu.ru/view.php?np=7cd6d2dcdb</t>
         </is>
       </c>
     </row>
@@ -1031,12 +1031,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>06:33</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>ежедневно</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Нахабино - Стрешнево (бывш. Ленинградская)</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=156a7dbfe4</t>
+          <t>https://www.tutu.ru/view.php?np=1f58d94238</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>06:57</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Шаховская - Москва Рижская</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=debaad7ba9</t>
+          <t>https://www.tutu.ru/view.php?np=ef15503049</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>06:57</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ежедневно</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Румянцево - Москва Рижская</t>
+          <t>Дедовск - Стрешнево (бывш. Ленинградская)</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=e43c4f6a69</t>
+          <t>https://www.tutu.ru/view.php?np=bd06b333df</t>
         </is>
       </c>
     </row>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>07:09</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>07:15</t>
+          <t>06:57</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=c577ff44a7</t>
+          <t>https://www.tutu.ru/view.php?np=debaad7ba9</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>07:15</t>
+          <t>06:57</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>ежедневно</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Новоиерусалимская - Стрешнево (бывш. Ленинградская)</t>
+          <t>Румянцево - Москва Рижская</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=f1507452a2</t>
+          <t>https://www.tutu.ru/view.php?np=e43c4f6a69</t>
         </is>
       </c>
     </row>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>07:09</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>07:15</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Волоколамск - Москва Рижская</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=112df24fb6</t>
+          <t>https://www.tutu.ru/view.php?np=c577ff44a7</t>
         </is>
       </c>
     </row>
@@ -1301,14 +1301,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>07:21</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>07:27</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>07:33</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>6 м</t>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Волоколамск - Москва Рижская</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=64d087852a</t>
+          <t>https://www.tutu.ru/view.php?np=112df24fb6</t>
         </is>
       </c>
     </row>
@@ -1346,14 +1346,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>07:27</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>07:33</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>07:39</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>6 м</t>
@@ -1361,12 +1361,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>ежедневно</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Дедовск - Москва Рижская</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=a2f6819170</t>
+          <t>https://www.tutu.ru/view.php?np=64d087852a</t>
         </is>
       </c>
     </row>
@@ -1406,12 +1406,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Румянцево - Москва Рижская</t>
+          <t>Румянцево - Стрешнево (бывш. Ленинградская)</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=2baa9ef69f</t>
+          <t>https://www.tutu.ru/view.php?np=ff6c83aa03</t>
         </is>
       </c>
     </row>
@@ -1616,12 +1616,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>08:21</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1631,12 +1631,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>ежедневно</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Нахабино - Стрешнево (бывш. Ленинградская)</t>
+          <t>Новоиерусалимская - Москва Рижская</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=305d837498</t>
+          <t>https://www.tutu.ru/view.php?np=7b0b0fd6d2</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1661,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>08:21</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>08:21</t>
+          <t>08:27</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Новоиерусалимская - Москва Рижская</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=7b0b0fd6d2</t>
+          <t>https://www.tutu.ru/view.php?np=9c54ad287d</t>
         </is>
       </c>
     </row>
@@ -1706,12 +1706,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>08:21</t>
+          <t>08:27</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>08:27</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Дедовск - Стрешнево (бывш. Ленинградская)</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=9c54ad287d</t>
+          <t>https://www.tutu.ru/view.php?np=dd05dfa195</t>
         </is>
       </c>
     </row>
@@ -1751,12 +1751,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>08:27</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Дедовск - Стрешнево (бывш. Ленинградская)</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=dd05dfa195</t>
+          <t>https://www.tutu.ru/view.php?np=dcd95b283e</t>
         </is>
       </c>
     </row>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>08:56</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>ежедневно</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Румянцево - Москва Рижская</t>
+          <t>Волоколамск - Москва Рижская</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=9a00d6879a</t>
+          <t>https://www.tutu.ru/view.php?np=5580dffb23</t>
         </is>
       </c>
     </row>
@@ -1841,12 +1841,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>08:57</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>09:03</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=dcd95b283e</t>
+          <t>https://www.tutu.ru/view.php?np=bdf6f7bb49</t>
         </is>
       </c>
     </row>
@@ -1886,22 +1886,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>09:09</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6 м</t>
+          <t>7 м</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=dd8c58fd0f</t>
+          <t>https://www.tutu.ru/view.php?np=c48d88f834</t>
         </is>
       </c>
     </row>
@@ -1931,12 +1931,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>08:56</t>
+          <t>09:21</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Волоколамск - Москва Рижская</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=5580dffb23</t>
+          <t>https://www.tutu.ru/view.php?np=70a1028e43</t>
         </is>
       </c>
     </row>
@@ -1976,12 +1976,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>08:57</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Шаховская - Москва Рижская</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=bdf6f7bb49</t>
+          <t>https://www.tutu.ru/view.php?np=9860d0e193</t>
         </is>
       </c>
     </row>
@@ -2021,27 +2021,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>09:09</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7 м</t>
+          <t>6 м</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>ежедневно</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Нахабино - Москва Рижская</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=897b3a784c</t>
+          <t>https://www.tutu.ru/view.php?np=2cf008493d</t>
         </is>
       </c>
     </row>
@@ -2066,27 +2066,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>09:21</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6 м</t>
+          <t>7 м</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ежедневно</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Румянцево - Стрешнево (бывш. Ленинградская)</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=70a1028e43</t>
+          <t>https://www.tutu.ru/view.php?np=10d219266e</t>
         </is>
       </c>
     </row>
@@ -2111,12 +2111,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Шаховская - Москва Рижская</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=9860d0e193</t>
+          <t>https://www.tutu.ru/view.php?np=c2128e8dd1</t>
         </is>
       </c>
     </row>
@@ -2156,12 +2156,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Нахабино - Москва Рижская</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=2cf008493d</t>
+          <t>https://www.tutu.ru/view.php?np=c78fd504a0</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2216,12 +2216,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>ежедневно</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Румянцево - Москва Рижская</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=47c8b11774</t>
+          <t>https://www.tutu.ru/view.php?np=1bb6ccd99b</t>
         </is>
       </c>
     </row>
@@ -2246,12 +2246,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2261,12 +2261,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ежедневно</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Новоиерусалимская - Москва Рижская</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=c2128e8dd1</t>
+          <t>https://www.tutu.ru/view.php?np=70fa0173e1</t>
         </is>
       </c>
     </row>
@@ -2291,12 +2291,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Нахабино - Москва Рижская</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=c78fd504a0</t>
+          <t>https://www.tutu.ru/view.php?np=840d574ee0</t>
         </is>
       </c>
     </row>
@@ -2336,12 +2336,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Волоколамск - Москва Рижская</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=1bb6ccd99b</t>
+          <t>https://www.tutu.ru/view.php?np=7c98f32545</t>
         </is>
       </c>
     </row>
@@ -2381,27 +2381,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7 м</t>
+          <t>6 м</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>ежедневно</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Новоиерусалимская - Стрешнево (бывш. Ленинградская)</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=a1a5a3bc0e</t>
+          <t>https://www.tutu.ru/view.php?np=ac429387f6</t>
         </is>
       </c>
     </row>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2441,12 +2441,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ежедневно</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Нахабино - Стрешнево (бывш. Ленинградская)</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=840d574ee0</t>
+          <t>https://www.tutu.ru/view.php?np=9a5ff732c9</t>
         </is>
       </c>
     </row>
@@ -2471,12 +2471,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Волоколамск - Москва Рижская</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=7c98f32545</t>
+          <t>https://www.tutu.ru/view.php?np=cc018abc26</t>
         </is>
       </c>
     </row>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Румянцево - Москва Рижская</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=ac429387f6</t>
+          <t>https://www.tutu.ru/view.php?np=b3d9d60ba5</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2576,12 +2576,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>ежедневно</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Новоиерусалимская - Стрешнево (бывш. Ленинградская)</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=3cf28c322a</t>
+          <t>https://www.tutu.ru/view.php?np=89bf87d7a4</t>
         </is>
       </c>
     </row>
@@ -2606,12 +2606,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Новоиерусалимская - Москва Рижская</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=cc018abc26</t>
+          <t>https://www.tutu.ru/view.php?np=78134d9429</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Румянцево - Москва Рижская</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=b3d9d60ba5</t>
+          <t>https://www.tutu.ru/view.php?np=95cf1ec17b</t>
         </is>
       </c>
     </row>
@@ -2696,12 +2696,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Волоколамск - Москва Рижская</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=89bf87d7a4</t>
+          <t>https://www.tutu.ru/view.php?np=856fd28215</t>
         </is>
       </c>
     </row>
@@ -2741,12 +2741,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Новоиерусалимская - Москва Рижская</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=78134d9429</t>
+          <t>https://www.tutu.ru/view.php?np=837f5661ec</t>
         </is>
       </c>
     </row>
@@ -2786,12 +2786,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2801,12 +2801,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ежедневно</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Новоиерусалимская - Москва Рижская</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=95cf1ec17b</t>
+          <t>https://www.tutu.ru/view.php?np=2d26f1879a</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>ежедневно</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Дедовск - Москва Рижская</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=4f27ba37b6</t>
+          <t>https://www.tutu.ru/view.php?np=670518c293</t>
         </is>
       </c>
     </row>
@@ -2876,12 +2876,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2891,12 +2891,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ежедневно</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Нахабино - Москва Рижская</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=9f29bb67cc</t>
+          <t>https://www.tutu.ru/view.php?np=497d5f9f76</t>
         </is>
       </c>
     </row>
@@ -2921,12 +2921,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Волоколамск - Москва Рижская</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=856fd28215</t>
+          <t>https://www.tutu.ru/view.php?np=5276fdd5ab</t>
         </is>
       </c>
     </row>
@@ -2966,12 +2966,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2981,12 +2981,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Нахабино - Москва Рижская</t>
+          <t>Шаховская - Москва Рижская</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=d438178f1d</t>
+          <t>https://www.tutu.ru/view.php?np=9076cbe1fc</t>
         </is>
       </c>
     </row>
@@ -3011,12 +3011,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=837f5661ec</t>
+          <t>https://www.tutu.ru/view.php?np=e5d45d5a91</t>
         </is>
       </c>
     </row>
@@ -3056,12 +3056,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=670518c293</t>
+          <t>https://www.tutu.ru/view.php?np=0421d2afe2</t>
         </is>
       </c>
     </row>
@@ -3101,12 +3101,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3116,12 +3116,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ежедневно</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Новоиерусалимская - Москва Рижская</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=5276fdd5ab</t>
+          <t>https://www.tutu.ru/view.php?np=740b641c0e</t>
         </is>
       </c>
     </row>
@@ -3146,12 +3146,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3161,12 +3161,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>ежедневно</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Шаховская - Москва Рижская</t>
+          <t>Нахабино - Подольск</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=e90e564da3</t>
+          <t>https://www.tutu.ru/view.php?np=92e6e8ad84</t>
         </is>
       </c>
     </row>
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>13:57</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3206,12 +3206,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ежедневно</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Волоколамск - Москва Рижская</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=e5d45d5a91</t>
+          <t>https://www.tutu.ru/view.php?np=fb10205353</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>14:09</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=0421d2afe2</t>
+          <t>https://www.tutu.ru/view.php?np=d6c5535459</t>
         </is>
       </c>
     </row>
@@ -3281,27 +3281,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6 м</t>
+          <t>7 м</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Нахабино - Москва Рижская</t>
+          <t>Дедовск - Стрешнево (бывш. Ленинградская)</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -3312,11 +3312,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=e83671d055</t>
+          <t>https://www.tutu.ru/view.php?np=c95ae4f79e</t>
         </is>
       </c>
     </row>
@@ -3326,12 +3326,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Румянцево - Москва Рижская</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3357,11 +3357,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=92e6e8ad84</t>
+          <t>https://www.tutu.ru/view.php?np=9c9f008202</t>
         </is>
       </c>
     </row>
@@ -3371,12 +3371,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>13:57</t>
+          <t>14:51</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:57</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3386,12 +3386,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>ежедневно</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Новоиерусалимская - Москва Рижская</t>
+          <t>Шаховская - Москва Рижская</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3402,11 +3402,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=3263995386</t>
+          <t>https://www.tutu.ru/view.php?np=7c523c26c2</t>
         </is>
       </c>
     </row>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>14:09</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Румянцево - Москва Рижская</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -3447,11 +3447,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=d6c5535459</t>
+          <t>https://www.tutu.ru/view.php?np=218729eee4</t>
         </is>
       </c>
     </row>
@@ -3461,12 +3461,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>14:09</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3476,12 +3476,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Новоиерусалимская - Стрешнево (бывш. Ленинградская)</t>
+          <t>Дедовск - Стрешнево (бывш. Ленинградская)</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3492,11 +3492,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=19094aa523</t>
+          <t>https://www.tutu.ru/view.php?np=9ebf2e5fc1</t>
         </is>
       </c>
     </row>
@@ -3506,12 +3506,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>15:51</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ежедневно</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Волоколамск - Москва Рижская</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3537,11 +3537,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=53e84b103e</t>
+          <t>https://www.tutu.ru/view.php?np=3273d53e0f</t>
         </is>
       </c>
     </row>
@@ -3551,27 +3551,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>16:28</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6 м</t>
+          <t>7 м</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ежедневно</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Румянцево - Москва Рижская</t>
+          <t>Новоиерусалимская - Стрешнево (бывш. Ленинградская)</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3582,11 +3582,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=9c9f008202</t>
+          <t>https://www.tutu.ru/view.php?np=f8e23f0a6b</t>
         </is>
       </c>
     </row>
@@ -3596,12 +3596,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>14:39</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>16:57</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Новоиерусалимская - Стрешнево (бывш. Ленинградская)</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3627,11 +3627,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=943689487f</t>
+          <t>https://www.tutu.ru/view.php?np=64ee62bf48</t>
         </is>
       </c>
     </row>
@@ -3641,12 +3641,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>14:51</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>14:57</t>
+          <t>17:21</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Волоколамск - Москва Рижская</t>
+          <t>Шаховская - Москва Рижская</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3672,11 +3672,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=7c523c26c2</t>
+          <t>https://www.tutu.ru/view.php?np=430827e35f</t>
         </is>
       </c>
     </row>
@@ -3686,12 +3686,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>14:57</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Новоиерусалимская - Москва Рижская</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3717,11 +3717,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=d048d9e722</t>
+          <t>https://www.tutu.ru/view.php?np=1864b26023</t>
         </is>
       </c>
     </row>
@@ -3731,12 +3731,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>17:51</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>17:57</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3746,12 +3746,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>ежедневно</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Дедовск - Москва Рижская</t>
+          <t>Волоколамск - Москва Рижская</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3762,11 +3762,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=23cb3410a2</t>
+          <t>https://www.tutu.ru/view.php?np=cdd25ac10c</t>
         </is>
       </c>
     </row>
@@ -3776,12 +3776,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>18:09</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3791,12 +3791,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ежедневно</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Румянцево - Москва Рижская</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3807,11 +3807,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=ddb1ad41b5</t>
+          <t>https://www.tutu.ru/view.php?np=8412a97629</t>
         </is>
       </c>
     </row>
@@ -3821,12 +3821,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>15:27</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3836,12 +3836,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ежедневно</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Румянцево - Москва Рижская</t>
+          <t>Шаховская - Москва Рижская</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=218729eee4</t>
+          <t>https://www.tutu.ru/view.php?np=a561051166</t>
         </is>
       </c>
     </row>
@@ -3866,12 +3866,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>18:44</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>15:39</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Нахабино - Стрешнево (бывш. Ленинградская)</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=32f574dc4b</t>
+          <t>https://www.tutu.ru/view.php?np=da63379636</t>
         </is>
       </c>
     </row>
@@ -3911,27 +3911,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>15:39</t>
+          <t>19:01</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>7 м</t>
+          <t>6 м</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>ежедневно</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Нахабино - Стрешнево (бывш. Ленинградская)</t>
+          <t>Новоиерусалимская - Москва Рижская</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=15f10ca564</t>
+          <t>https://www.tutu.ru/view.php?np=e468371ccf</t>
         </is>
       </c>
     </row>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>15:51</t>
+          <t>19:12</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>15:57</t>
+          <t>19:18</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3971,12 +3971,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ежедневно</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Волоколамск - Стрешнево (бывш. Ленинградская)</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=0c6aa046b9</t>
+          <t>https://www.tutu.ru/view.php?np=a56506a76d</t>
         </is>
       </c>
     </row>
@@ -4001,12 +4001,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16:03</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4016,12 +4016,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>ежедневно</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Дедовск - Москва Рижская</t>
+          <t>Нахабино - Москва Рижская</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=c44503c695</t>
+          <t>https://www.tutu.ru/view.php?np=16d821ec0d</t>
         </is>
       </c>
     </row>
@@ -4046,12 +4046,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>19:39</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Волоколамск - Москва Рижская</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=dc93166427</t>
+          <t>https://www.tutu.ru/view.php?np=76da749a76</t>
         </is>
       </c>
     </row>
@@ -4091,12 +4091,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>19:51</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>19:57</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4106,12 +4106,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Волоколамск - Москва Рижская</t>
+          <t>Волоколамск - Стрешнево (бывш. Ленинградская)</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=5c41ad4f8f</t>
+          <t>https://www.tutu.ru/view.php?np=32dcc26768</t>
         </is>
       </c>
     </row>
@@ -4136,12 +4136,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>20:21</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Новоиерусалимская - Москва Рижская</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=1d9fd38da3</t>
+          <t>https://www.tutu.ru/view.php?np=11dff77053</t>
         </is>
       </c>
     </row>
@@ -4181,27 +4181,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>20:33</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>7 м</t>
+          <t>6 м</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>ежедневно</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Нахабино - Стрешнево (бывш. Ленинградская)</t>
+          <t>Шаховская - Москва Рижская</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=0c6912f660</t>
+          <t>https://www.tutu.ru/view.php?np=aad5f47888</t>
         </is>
       </c>
     </row>
@@ -4226,12 +4226,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>20:51</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>20:57</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Румянцево - Москва Рижская</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=7f9026737c</t>
+          <t>https://www.tutu.ru/view.php?np=a16e8241e4</t>
         </is>
       </c>
     </row>
@@ -4271,12 +4271,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>21:42</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>16:57</t>
+          <t>21:48</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Новоиерусалимская - Стрешнево (бывш. Ленинградская)</t>
+          <t>Волоколамск - Москва Рижская</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=64ee62bf48</t>
+          <t>https://www.tutu.ru/view.php?np=9917c3ad7a</t>
         </is>
       </c>
     </row>
@@ -4316,12 +4316,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>22:03</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>22:09</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Румянцево - Москва Рижская</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=5236d3932a</t>
+          <t>https://www.tutu.ru/view.php?np=2cfdfa40e4</t>
         </is>
       </c>
     </row>
@@ -4361,27 +4361,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>22:12</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>22:18</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>7 м</t>
+          <t>6 м</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>по рабочим</t>
+          <t>по выходным</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Нахабино - Стрешнево (бывш. Ленинградская)</t>
+          <t>Новоиерусалимская - Москва Рижская</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=f647574273</t>
+          <t>https://www.tutu.ru/view.php?np=1ed9f4d004</t>
         </is>
       </c>
     </row>
@@ -4406,12 +4406,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>22:29</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>17:21</t>
+          <t>22:35</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Волоколамск - Москва Рижская</t>
+          <t>Нахабино - Москва Рижская</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=430827e35f</t>
+          <t>https://www.tutu.ru/view.php?np=39384d600b</t>
         </is>
       </c>
     </row>
@@ -4451,12 +4451,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>17:21</t>
+          <t>22:39</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>22:45</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Новоиерусалимская - Москва Рижская</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=dc22a3d977</t>
+          <t>https://www.tutu.ru/view.php?np=11cb2bbc89</t>
         </is>
       </c>
     </row>
@@ -4496,12 +4496,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>22:56</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>23:02</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Новоиерусалимская - Москва Рижская</t>
+          <t>Шаховская - Москва Рижская</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=1864b26023</t>
+          <t>https://www.tutu.ru/view.php?np=60ccb5f1a9</t>
         </is>
       </c>
     </row>
@@ -4541,12 +4541,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>23:33</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>23:39</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Волоколамск - Москва Рижская</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=630f51ebf0</t>
+          <t>https://www.tutu.ru/view.php?np=3daebb4167</t>
         </is>
       </c>
     </row>
@@ -4586,12 +4586,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>17:51</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>00:36</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>https://www.tutu.ru/view.php?np=cdd25ac10c</t>
+          <t>https://www.tutu.ru/view.php?np=606e0a0b1b</t>
         </is>
       </c>
     </row>
@@ -4631,12 +4631,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>00:42</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>18:03</t>
+          <t>00:48</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Нахабино - Подольск</t>
+          <t>Новоиерусалимская - Москва Рижская</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -4665,1896 +4665,6 @@
         <v>0</v>
       </c>
       <c r="K94" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=a83a8349f2</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>18:03</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>18:09</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>по рабочим</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Румянцево - Стрешнево (бывш. Ленинградская)</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
-        <v>42</v>
-      </c>
-      <c r="H95" t="n">
-        <v>46</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="b">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=33b6be35e4</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>18:09</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>18:15</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>по рабочим</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Дедовск - Москва Рижская</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>42</v>
-      </c>
-      <c r="H96" t="n">
-        <v>46</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="b">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=d287accc46</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>18:15</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>18:21</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>42</v>
-      </c>
-      <c r="H97" t="n">
-        <v>46</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="b">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=d4c179cacf</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>18:21</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>18:27</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>по рабочим</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Нахабино - Стрешнево (бывш. Ленинградская)</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
-        <v>42</v>
-      </c>
-      <c r="H98" t="n">
-        <v>46</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="b">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=4bf8992282</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>18:27</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>18:33</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>по рабочим</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Волоколамск - Москва Рижская</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>42</v>
-      </c>
-      <c r="H99" t="n">
-        <v>46</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="b">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=0efaba8d35</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>18:33</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>18:39</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
-        <v>42</v>
-      </c>
-      <c r="H100" t="n">
-        <v>46</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="b">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=151f135f45</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>18:39</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>18:45</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Нахабино - Стрешнево (бывш. Ленинградская)</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
-        <v>42</v>
-      </c>
-      <c r="H101" t="n">
-        <v>46</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="b">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=da63379636</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>18:51</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>18:57</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
-        <v>42</v>
-      </c>
-      <c r="H102" t="n">
-        <v>46</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="b">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=acfc77c9ac</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>18:57</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>19:03</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>по рабочим</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Нахабино - Стрешнево (бывш. Ленинградская)</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
-        <v>42</v>
-      </c>
-      <c r="H103" t="n">
-        <v>46</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="b">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=24bdb960f0</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>19:03</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>19:09</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Новоиерусалимская - Москва Рижская</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
-        <v>42</v>
-      </c>
-      <c r="H104" t="n">
-        <v>46</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="b">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=e468371ccf</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>19:09</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>19:15</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
-        <v>42</v>
-      </c>
-      <c r="H105" t="n">
-        <v>46</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="b">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=65914e1d0d</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>19:15</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>19:21</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>по рабочим</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Дедовск - Стрешнево (бывш. Ленинградская)</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
-        <v>42</v>
-      </c>
-      <c r="H106" t="n">
-        <v>46</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="b">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=2928c4c89a</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>19:21</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>19:27</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Нахабино - Москва Рижская</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>42</v>
-      </c>
-      <c r="H107" t="n">
-        <v>46</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="b">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=16d821ec0d</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>19:27</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>19:33</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
-        <v>42</v>
-      </c>
-      <c r="H108" t="n">
-        <v>46</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="b">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=407b2d04a2</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>19:39</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Волоколамск - Москва Рижская</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
-        <v>42</v>
-      </c>
-      <c r="H109" t="n">
-        <v>46</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="b">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=76da749a76</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>19:51</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>42</v>
-      </c>
-      <c r="H110" t="n">
-        <v>46</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="b">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=7b57c448b3</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>20:03</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>20:09</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>42</v>
-      </c>
-      <c r="H111" t="n">
-        <v>46</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="b">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=9a517db630</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>20:15</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>20:21</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Новоиерусалимская - Москва Рижская</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
-        <v>42</v>
-      </c>
-      <c r="H112" t="n">
-        <v>46</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="b">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=11dff77053</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>20:21</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>20:27</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G113" t="n">
-        <v>42</v>
-      </c>
-      <c r="H113" t="n">
-        <v>46</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="b">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=2452f5e33c</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>20:33</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>20:39</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Волоколамск - Москва Рижская</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
-        <v>42</v>
-      </c>
-      <c r="H114" t="n">
-        <v>46</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="b">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=aad5f47888</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>20:39</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>20:45</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>42</v>
-      </c>
-      <c r="H115" t="n">
-        <v>46</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="b">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=b545874c00</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>20:51</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>20:57</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Румянцево - Москва Рижская</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
-        <v>42</v>
-      </c>
-      <c r="H116" t="n">
-        <v>46</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="b">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=a16e8241e4</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>20:57</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>21:03</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G117" t="n">
-        <v>42</v>
-      </c>
-      <c r="H117" t="n">
-        <v>46</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="b">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=153a772233</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>21:15</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>21:21</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G118" t="n">
-        <v>42</v>
-      </c>
-      <c r="H118" t="n">
-        <v>46</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="b">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=8736bf494a</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>21:25</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>21:31</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>по рабочим</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Новоиерусалимская - Москва Рижская</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
-        <v>42</v>
-      </c>
-      <c r="H119" t="n">
-        <v>46</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="b">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=976b9e4719</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>21:33</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>21:39</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
-        <v>42</v>
-      </c>
-      <c r="H120" t="n">
-        <v>46</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="b">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=807396eae2</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>21:42</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>21:48</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Волоколамск - Москва Рижская</t>
-        </is>
-      </c>
-      <c r="G121" t="n">
-        <v>42</v>
-      </c>
-      <c r="H121" t="n">
-        <v>46</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="b">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=9917c3ad7a</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>21:51</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>21:57</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
-        <v>42</v>
-      </c>
-      <c r="H122" t="n">
-        <v>46</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="b">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=085b6c1d4f</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>22:03</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>22:09</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Румянцево - Москва Рижская</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
-        <v>42</v>
-      </c>
-      <c r="H123" t="n">
-        <v>46</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="b">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=2cfdfa40e4</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>22:09</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>22:15</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G124" t="n">
-        <v>42</v>
-      </c>
-      <c r="H124" t="n">
-        <v>46</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="b">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=5a33ea59d2</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>22:21</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>22:27</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Нахабино - Москва Рижская</t>
-        </is>
-      </c>
-      <c r="G125" t="n">
-        <v>42</v>
-      </c>
-      <c r="H125" t="n">
-        <v>46</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="b">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=39384d600b</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>22:27</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>22:33</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
-        <v>42</v>
-      </c>
-      <c r="H126" t="n">
-        <v>46</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="b">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=18060c0243</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>22:39</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>22:45</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Новоиерусалимская - Москва Рижская</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
-        <v>42</v>
-      </c>
-      <c r="H127" t="n">
-        <v>46</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="b">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=11cb2bbc89</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>22:45</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>22:51</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>42</v>
-      </c>
-      <c r="H128" t="n">
-        <v>46</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="b">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=b9d0458452</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>22:56</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>23:02</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Шаховская - Москва Рижская</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
-        <v>42</v>
-      </c>
-      <c r="H129" t="n">
-        <v>46</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="b">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=60ccb5f1a9</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>23:03</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>23:09</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
-        <v>42</v>
-      </c>
-      <c r="H130" t="n">
-        <v>46</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="b">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=67956361c7</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>23:21</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>23:27</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
-        <v>42</v>
-      </c>
-      <c r="H131" t="n">
-        <v>46</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="b">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=b65e5a359f</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>23:33</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>23:39</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Волоколамск - Москва Рижская</t>
-        </is>
-      </c>
-      <c r="G132" t="n">
-        <v>42</v>
-      </c>
-      <c r="H132" t="n">
-        <v>46</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="b">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=3daebb4167</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>23:39</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>23:45</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Нахабино - Подольск</t>
-        </is>
-      </c>
-      <c r="G133" t="n">
-        <v>42</v>
-      </c>
-      <c r="H133" t="n">
-        <v>46</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="b">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=97128e2804</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>23:57</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>00:03</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Нахабино - Москва Курская</t>
-        </is>
-      </c>
-      <c r="G134" t="n">
-        <v>42</v>
-      </c>
-      <c r="H134" t="n">
-        <v>46</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="b">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=701a1967b8</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>00:30</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>00:36</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Волоколамск - Москва Рижская</t>
-        </is>
-      </c>
-      <c r="G135" t="n">
-        <v>42</v>
-      </c>
-      <c r="H135" t="n">
-        <v>46</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="b">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>https://www.tutu.ru/view.php?np=606e0a0b1b</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>00:42</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>00:48</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>6 м</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>ежедневно</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Новоиерусалимская - Москва Рижская</t>
-        </is>
-      </c>
-      <c r="G136" t="n">
-        <v>42</v>
-      </c>
-      <c r="H136" t="n">
-        <v>46</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="b">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr">
         <is>
           <t>https://www.tutu.ru/view.php?np=e2457cee79</t>
         </is>
